--- a/assets/dataFiles/Dropping Duty (KM Basis).xlsx
+++ b/assets/dataFiles/Dropping Duty (KM Basis).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7558DC-8A5D-4DFB-9D27-DA4C6C888EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B2F5F-C018-4D9E-9310-7B0506CBF2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{75D4777B-23C6-4B2A-A984-69DA6318934C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Kmtrs</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Dropping Duty KM basis (Fixed)</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;Dropping Duty KM basis (Fixed)&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -628,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A1473B-6F89-4406-B6AF-FE91C28B8223}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +654,7 @@
     </row>
     <row r="2" spans="1:3" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>

--- a/assets/dataFiles/Dropping Duty (KM Basis).xlsx
+++ b/assets/dataFiles/Dropping Duty (KM Basis).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B2F5F-C018-4D9E-9310-7B0506CBF2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D3DF05-50E3-4DB2-AA69-2D17BBB13219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{75D4777B-23C6-4B2A-A984-69DA6318934C}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,76 +43,40 @@
     <t>BOOK</t>
   </si>
   <si>
-    <t>INDICA NON A/C</t>
-  </si>
-  <si>
     <t>RS.17.00/- KMS</t>
   </si>
   <si>
     <t>BOOK NOW! </t>
   </si>
   <si>
-    <t>INDICA</t>
-  </si>
-  <si>
     <t>RS.18.00/- KMS</t>
   </si>
   <si>
-    <t>INDIGO</t>
-  </si>
-  <si>
     <t>RS.19.00/- KMS</t>
   </si>
   <si>
-    <t>MAHENDRA LOGAN</t>
-  </si>
-  <si>
     <t>RS.19.50/- KMS</t>
   </si>
   <si>
-    <t>TOYOTA EITOS</t>
-  </si>
-  <si>
     <t>RS.20.50/- KMS</t>
   </si>
   <si>
-    <t>SWIFT DIZER</t>
-  </si>
-  <si>
     <t>RS.20.00/- KMS</t>
   </si>
   <si>
-    <t>TAVERA NON A/C</t>
-  </si>
-  <si>
     <t>RS.27.00/- KMS</t>
   </si>
   <si>
-    <t>TAVERA</t>
-  </si>
-  <si>
     <t>RS.28.50/- KMS</t>
   </si>
   <si>
-    <t>XYLO</t>
-  </si>
-  <si>
     <t>RS.29.00/- KMS</t>
   </si>
   <si>
-    <t>INNOVA</t>
-  </si>
-  <si>
     <t>RS.30.00/- KMS</t>
   </si>
   <si>
-    <t>TEMPO TRAVELLER NON A/C</t>
-  </si>
-  <si>
     <t>RS.47.00/- KMS</t>
-  </si>
-  <si>
-    <t>TEMPO TRAVELLER</t>
   </si>
   <si>
     <t>RS.49.50/- KMS</t>
@@ -129,6 +92,42 @@
 &lt;h5&gt;Info&lt;/h5&gt;
 &lt;p&gt;Dropping Duty KM basis (Fixed)&lt;/p&gt;
 &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Indica Non A/C</t>
+  </si>
+  <si>
+    <t>Indica</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>Mahindra Logan</t>
+  </si>
+  <si>
+    <t>Toyota Etios</t>
+  </si>
+  <si>
+    <t>Swift Dzire</t>
+  </si>
+  <si>
+    <t>Tavera Non A/C</t>
+  </si>
+  <si>
+    <t>Xylo</t>
+  </si>
+  <si>
+    <t>Innova</t>
+  </si>
+  <si>
+    <t>Tempo Traveller Non A/C</t>
+  </si>
+  <si>
+    <t>Tempo Traveller</t>
+  </si>
+  <si>
+    <t>Tavera</t>
   </si>
 </sst>
 </file>
@@ -599,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,12 +616,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -634,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A1473B-6F89-4406-B6AF-FE91C28B8223}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,21 +646,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
@@ -672,134 +671,134 @@
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/assets/dataFiles/Dropping Duty (KM Basis).xlsx
+++ b/assets/dataFiles/Dropping Duty (KM Basis).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D3DF05-50E3-4DB2-AA69-2D17BBB13219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3613D52B-B818-48C4-87A2-CE796C90D280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{75D4777B-23C6-4B2A-A984-69DA6318934C}"/>
   </bookViews>
@@ -35,99 +35,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
-  <si>
-    <t>Kmtrs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>BOOK</t>
   </si>
   <si>
-    <t>RS.17.00/- KMS</t>
-  </si>
-  <si>
     <t>BOOK NOW! </t>
   </si>
   <si>
-    <t>RS.18.00/- KMS</t>
-  </si>
-  <si>
-    <t>RS.19.00/- KMS</t>
-  </si>
-  <si>
-    <t>RS.19.50/- KMS</t>
-  </si>
-  <si>
-    <t>RS.20.50/- KMS</t>
-  </si>
-  <si>
-    <t>RS.20.00/- KMS</t>
-  </si>
-  <si>
-    <t>RS.27.00/- KMS</t>
-  </si>
-  <si>
-    <t>RS.28.50/- KMS</t>
-  </si>
-  <si>
-    <t>RS.29.00/- KMS</t>
-  </si>
-  <si>
-    <t>RS.30.00/- KMS</t>
-  </si>
-  <si>
-    <t>RS.47.00/- KMS</t>
-  </si>
-  <si>
-    <t>RS.49.50/- KMS</t>
-  </si>
-  <si>
-    <t>CAB TYPE</t>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>MAHENDRA LOGAN</t>
+  </si>
+  <si>
+    <t>TOYOTA EITOS</t>
+  </si>
+  <si>
+    <t>SWIFT DIZER</t>
+  </si>
+  <si>
+    <t>TAVERA NON A/C</t>
+  </si>
+  <si>
+    <t>TAVERA</t>
+  </si>
+  <si>
+    <t>XYLO</t>
+  </si>
+  <si>
+    <t>INNOVA</t>
+  </si>
+  <si>
+    <t>TEMPO TRAVELLER NON A/C</t>
+  </si>
+  <si>
+    <t>TEMPO TRAVELLER</t>
   </si>
   <si>
     <t>Dropping Duty KM basis (Fixed)</t>
+  </si>
+  <si>
+    <t>TATA ZEST</t>
+  </si>
+  <si>
+    <t>INNOVA CRYSTA</t>
+  </si>
+  <si>
+    <t>Per Kilometer</t>
+  </si>
+  <si>
+    <t>Rs. 24.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 26.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 30.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 32.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 33.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 39.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 44.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 49.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 300.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 350.00/-</t>
+  </si>
+  <si>
+    <t>Rs. 400.00/-</t>
+  </si>
+  <si>
+    <t>Driver Batta</t>
+  </si>
+  <si>
+    <t>Cab Make/Model</t>
   </si>
   <si>
     <t>&lt;div&gt;
 &lt;h5&gt;Info&lt;/h5&gt;
-&lt;p&gt;Dropping Duty KM basis (Fixed)&lt;/p&gt;
+&lt;p&gt;Dropping Duty KM basis (Fixed) Minimum 100kms&lt;/p&gt;
 &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Indica Non A/C</t>
-  </si>
-  <si>
-    <t>Indica</t>
-  </si>
-  <si>
-    <t>Indigo</t>
-  </si>
-  <si>
-    <t>Mahindra Logan</t>
-  </si>
-  <si>
-    <t>Toyota Etios</t>
-  </si>
-  <si>
-    <t>Swift Dzire</t>
-  </si>
-  <si>
-    <t>Tavera Non A/C</t>
-  </si>
-  <si>
-    <t>Xylo</t>
-  </si>
-  <si>
-    <t>Innova</t>
-  </si>
-  <si>
-    <t>Tempo Traveller Non A/C</t>
-  </si>
-  <si>
-    <t>Tempo Traveller</t>
-  </si>
-  <si>
-    <t>Tavera</t>
   </si>
 </sst>
 </file>
@@ -137,16 +137,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -175,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,30 +180,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -259,38 +228,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,12 +595,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -631,181 +610,214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A1473B-6F89-4406-B6AF-FE91C28B8223}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>